--- a/Pflichtenheft/Ext. files/risiko grafik.xlsx
+++ b/Pflichtenheft/Ext. files/risiko grafik.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/Pflichtenheft/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02780616-1E0D-46B7-9973-752D7A2B03EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C82CE-1B83-4740-8B58-5DABBD2AE2DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7870" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="16060" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +69,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +106,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -283,51 +286,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -642,78 +646,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAB4DB-A61E-4AD2-A0F5-F92813AE6B2A}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.7265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="2"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="2:6" ht="100" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="2:6" ht="100" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="2:6" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Pflichtenheft/Ext. files/risiko grafik.xlsx
+++ b/Pflichtenheft/Ext. files/risiko grafik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/Pflichtenheft/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C82CE-1B83-4740-8B58-5DABBD2AE2DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7D458-E0EE-D445-927F-47300A9D9E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="16060" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="15940" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -325,13 +325,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -662,51 +662,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="16"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="7" t="s">
@@ -718,35 +736,35 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
